--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_7.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_23</t>
+          <t>model_9_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9497833890866925</v>
+        <v>0.956572833106087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7965934455298519</v>
+        <v>0.8431370512109766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8277365685638016</v>
+        <v>0.8924957434193294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8601747011363936</v>
+        <v>0.9879012425565203</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9010957633972329</v>
+        <v>0.9722123094827153</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3357987084035194</v>
+        <v>0.2903976649833129</v>
       </c>
       <c r="H2" t="n">
-        <v>1.360180566342943</v>
+        <v>1.048943260839664</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2478561082633312</v>
+        <v>0.507388604954025</v>
       </c>
       <c r="J2" t="n">
-        <v>0.137203763705426</v>
+        <v>0.2843555656612602</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1925299359843786</v>
+        <v>0.3958720853076426</v>
       </c>
       <c r="L2" t="n">
-        <v>1.920432776081821</v>
+        <v>1.166796475643928</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5794814133374077</v>
+        <v>0.5388855768930106</v>
       </c>
       <c r="N2" t="n">
-        <v>1.241039732383876</v>
+        <v>1.208450401090782</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6041511367950755</v>
+        <v>0.5618270515482742</v>
       </c>
       <c r="P2" t="n">
-        <v>60.18248676134544</v>
+        <v>60.47300807350979</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.52988568252324</v>
+        <v>95.8204069946876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_24</t>
+          <t>model_9_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9503812785740419</v>
+        <v>0.9561800569290588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7965912733056602</v>
+        <v>0.8427158593419043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8236109101470221</v>
+        <v>0.8939415865846979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8569740511392769</v>
+        <v>0.9878045913921987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.898764369207281</v>
+        <v>0.9723720833407173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3318006186485865</v>
+        <v>0.2930241610876682</v>
       </c>
       <c r="H3" t="n">
-        <v>1.360195092016115</v>
+        <v>1.051759772807561</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2537921890129216</v>
+        <v>0.5005646486755295</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1403444058458483</v>
+        <v>0.2866271457496201</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1970682974293849</v>
+        <v>0.3935958972125748</v>
       </c>
       <c r="L3" t="n">
-        <v>1.907847308118854</v>
+        <v>1.173298095658597</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5760213699582564</v>
+        <v>0.5413170615154007</v>
       </c>
       <c r="N3" t="n">
-        <v>1.238169862844599</v>
+        <v>1.210335726740518</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6005437922059965</v>
+        <v>0.5643620495049064</v>
       </c>
       <c r="P3" t="n">
-        <v>60.20644207340994</v>
+        <v>60.45500042462947</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.55384099458774</v>
+        <v>95.80239934580727</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9491641632815981</v>
+        <v>0.9557671047239386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7965782337500736</v>
+        <v>0.8422793832654994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8317625811112133</v>
+        <v>0.895375620636609</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8633159757692481</v>
+        <v>0.987692587081488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.903375366885524</v>
+        <v>0.9725172366204605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3399394742134577</v>
+        <v>0.2957855743847779</v>
       </c>
       <c r="H4" t="n">
-        <v>1.360282287584364</v>
+        <v>1.054678490340268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2420634000053955</v>
+        <v>0.4937964279538715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.134121383721526</v>
+        <v>0.2892595688953373</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1880923918634608</v>
+        <v>0.3915279984246044</v>
       </c>
       <c r="L4" t="n">
-        <v>1.933492336954115</v>
+        <v>1.17988521603909</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5830432867407511</v>
+        <v>0.543861723588614</v>
       </c>
       <c r="N4" t="n">
-        <v>1.244012016248329</v>
+        <v>1.212317897325095</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6078646465232938</v>
+        <v>0.5670150431107529</v>
       </c>
       <c r="P4" t="n">
-        <v>60.15797538847617</v>
+        <v>60.43624099606529</v>
       </c>
       <c r="Q4" t="n">
-        <v>95.50537430965397</v>
+        <v>95.78363991724311</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9485230532027351</v>
+        <v>0.9553322130108252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.79654527243192</v>
+        <v>0.8418273350234833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8356842124767689</v>
+        <v>0.8967915364474601</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8664027965957988</v>
+        <v>0.9875638970498912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.905602670079131</v>
+        <v>0.9726456250277614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3442265802628552</v>
+        <v>0.2986936972728592</v>
       </c>
       <c r="H5" t="n">
-        <v>1.36050270007063</v>
+        <v>1.05770133901612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2364208775024693</v>
+        <v>0.4871137200235025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1310924366087422</v>
+        <v>0.292284154428242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1837566570556058</v>
+        <v>0.3896989372258722</v>
       </c>
       <c r="L5" t="n">
-        <v>1.946606984047709</v>
+        <v>1.186570676591937</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5867082582194111</v>
+        <v>0.546528770764046</v>
       </c>
       <c r="N5" t="n">
-        <v>1.247089344626871</v>
+        <v>1.214405377548039</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6116856434253372</v>
+        <v>0.5697956320059919</v>
       </c>
       <c r="P5" t="n">
-        <v>60.13291034975512</v>
+        <v>60.41667330901755</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.48030927093293</v>
+        <v>95.76407223019537</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9478597603760519</v>
+        <v>0.9548736563822482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7964941233965275</v>
+        <v>0.8413593028021975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8394976488876793</v>
+        <v>0.8981813184393184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8694370564150778</v>
+        <v>0.9874172280988609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.907776740591793</v>
+        <v>0.9727548540809414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.348662022449069</v>
+        <v>0.3017600675596125</v>
       </c>
       <c r="H6" t="n">
-        <v>1.36084473390582</v>
+        <v>1.060831072634949</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2309340280879551</v>
+        <v>0.4805543560646433</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1281150650554633</v>
+        <v>0.2957312962301988</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1795245465717092</v>
+        <v>0.388142826147421</v>
       </c>
       <c r="L6" t="n">
-        <v>1.959757778686757</v>
+        <v>1.193356081716772</v>
       </c>
       <c r="M6" t="n">
-        <v>0.590476098118348</v>
+        <v>0.5493269222963795</v>
       </c>
       <c r="N6" t="n">
-        <v>1.250273150194951</v>
+        <v>1.216606449365209</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6156138880692756</v>
+        <v>0.572712906642029</v>
       </c>
       <c r="P6" t="n">
-        <v>60.10730448609968</v>
+        <v>60.39624611130364</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.45470340727749</v>
+        <v>95.74364503248145</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.947173780061745</v>
+        <v>0.9543894340459151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7964243648642371</v>
+        <v>0.8408748986221397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.84319763602277</v>
+        <v>0.8995368756965985</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8724233416239838</v>
+        <v>0.9872509872371972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9098967925485183</v>
+        <v>0.9728422695272002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3532491759694881</v>
+        <v>0.3049980645523103</v>
       </c>
       <c r="H7" t="n">
-        <v>1.361311209532454</v>
+        <v>1.064070285617471</v>
       </c>
       <c r="I7" t="n">
-        <v>0.225610411785399</v>
+        <v>0.4741565228291702</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1251847686535266</v>
+        <v>0.2996384341718643</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1753975902194628</v>
+        <v>0.3868974785005173</v>
       </c>
       <c r="L7" t="n">
-        <v>1.972934813805863</v>
+        <v>1.200252302066677</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5943476894625637</v>
+        <v>0.5522662985845781</v>
       </c>
       <c r="N7" t="n">
-        <v>1.253565855703624</v>
+        <v>1.218930716579607</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6196503010723136</v>
+        <v>0.575777418264164</v>
       </c>
       <c r="P7" t="n">
-        <v>60.08116318026443</v>
+        <v>60.37489969624998</v>
       </c>
       <c r="Q7" t="n">
-        <v>95.42856210144224</v>
+        <v>95.7222986174278</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9464646180564384</v>
+        <v>0.9538774630616337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7963355785296189</v>
+        <v>0.8403737014307502</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8467795950991707</v>
+        <v>0.9008481411600658</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8753633844783631</v>
+        <v>0.9870637736610747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9119615703775128</v>
+        <v>0.9729050483028916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3579913455643636</v>
+        <v>0.3084216168816103</v>
       </c>
       <c r="H8" t="n">
-        <v>1.361904924160869</v>
+        <v>1.067421793544094</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2204566166401769</v>
+        <v>0.4679677338882051</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1222998476245391</v>
+        <v>0.3040384911683333</v>
       </c>
       <c r="K8" t="n">
-        <v>0.171378232132358</v>
+        <v>0.3860031125282691</v>
       </c>
       <c r="L8" t="n">
-        <v>1.986141821034903</v>
+        <v>1.208255447278408</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5983237798753812</v>
+        <v>0.5553571975599221</v>
       </c>
       <c r="N8" t="n">
-        <v>1.256969833329096</v>
+        <v>1.221388177304158</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6237956618856464</v>
+        <v>0.5789999032079314</v>
       </c>
       <c r="P8" t="n">
-        <v>60.05449293454972</v>
+        <v>60.35257509219914</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.40189185572754</v>
+        <v>95.69997401337694</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9457318790556705</v>
+        <v>0.953335372450252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7962271767612719</v>
+        <v>0.8398551891777793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8502380235180872</v>
+        <v>0.9021050939933009</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8782609191628654</v>
+        <v>0.9868538320940421</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9139699816582687</v>
+        <v>0.9729400826051458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3628911746364521</v>
+        <v>0.3120465792960171</v>
       </c>
       <c r="H9" t="n">
-        <v>1.36262980728495</v>
+        <v>1.070889087367239</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2154805599026944</v>
+        <v>0.4620352846547228</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1194566377947605</v>
+        <v>0.3089727212599979</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1674685988487275</v>
+        <v>0.3855040029573603</v>
       </c>
       <c r="L9" t="n">
-        <v>1.999362392727153</v>
+        <v>1.217537550097676</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6024044942033983</v>
+        <v>0.5586112953530542</v>
       </c>
       <c r="N9" t="n">
-        <v>1.260486980532782</v>
+        <v>1.22399021223879</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6280501006708504</v>
+        <v>0.5823925346810281</v>
       </c>
       <c r="P9" t="n">
-        <v>60.02730456810909</v>
+        <v>60.3292056194005</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.3747034892869</v>
+        <v>95.67660454057831</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9449749322538827</v>
+        <v>0.9527608057809034</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7960986428080847</v>
+        <v>0.8393187265568129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8535662855525734</v>
+        <v>0.9032963392450297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.881118297809138</v>
+        <v>0.98661946205161</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9159201668729471</v>
+        <v>0.9729440822101472</v>
       </c>
       <c r="G10" t="n">
-        <v>0.367952881385426</v>
+        <v>0.3158887092595878</v>
       </c>
       <c r="H10" t="n">
-        <v>1.363489314421757</v>
+        <v>1.074476415383825</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2106917891910541</v>
+        <v>0.4564129559613535</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1166528311318294</v>
+        <v>0.3144810907186943</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1636723101614417</v>
+        <v>0.3854470233400239</v>
       </c>
       <c r="L10" t="n">
-        <v>2.012608165853581</v>
+        <v>1.227037182828279</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6065911979129156</v>
+        <v>0.5620397755137867</v>
       </c>
       <c r="N10" t="n">
-        <v>1.264120325181363</v>
+        <v>1.226748132251664</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6324150410249534</v>
+        <v>0.5859669723401354</v>
       </c>
       <c r="P10" t="n">
-        <v>59.99960077744901</v>
+        <v>60.30473062662924</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.34699969862683</v>
+        <v>95.65212954780705</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9441932187981744</v>
+        <v>0.9521511469980224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7959493110476263</v>
+        <v>0.8387636760720382</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8567568065074993</v>
+        <v>0.9044097391990359</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8839375452434133</v>
+        <v>0.9863587139906963</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9178098369985007</v>
+        <v>0.9729134284151683</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3731802028632068</v>
+        <v>0.3199655003479334</v>
       </c>
       <c r="H11" t="n">
-        <v>1.364487896591552</v>
+        <v>1.078188040531286</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2061012031297666</v>
+        <v>0.4511580342737163</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1138864407722654</v>
+        <v>0.3206094194088573</v>
       </c>
       <c r="K11" t="n">
-        <v>0.159993821951016</v>
+        <v>0.3858837268412867</v>
       </c>
       <c r="L11" t="n">
-        <v>2.0258727021973</v>
+        <v>1.236763063452895</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6108847705281306</v>
+        <v>0.5656549304548961</v>
       </c>
       <c r="N11" t="n">
-        <v>1.267872549768763</v>
+        <v>1.229674494409493</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6368913999153186</v>
+        <v>0.5897360319114902</v>
       </c>
       <c r="P11" t="n">
-        <v>59.97138771681265</v>
+        <v>60.27908420082628</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.31878663799047</v>
+        <v>95.62648312200409</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.943386093313661</v>
+        <v>0.9515035651508301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7957785057351091</v>
+        <v>0.8381891963402611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8598020337647936</v>
+        <v>0.9054325107900629</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8867193284178585</v>
+        <v>0.9860696353345997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9196363689342795</v>
+        <v>0.9728443931152229</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3785774546946197</v>
+        <v>0.3242958831419482</v>
       </c>
       <c r="H12" t="n">
-        <v>1.365630072502841</v>
+        <v>1.082029589142915</v>
       </c>
       <c r="I12" t="n">
-        <v>0.201719668578425</v>
+        <v>0.4463308519158866</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1111568122683521</v>
+        <v>0.3274035984936894</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1564382404233886</v>
+        <v>0.386867225204788</v>
       </c>
       <c r="L12" t="n">
-        <v>2.039151012726211</v>
+        <v>1.246725628359688</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6152864818071495</v>
+        <v>0.5694698263665496</v>
       </c>
       <c r="N12" t="n">
-        <v>1.271746752094427</v>
+        <v>1.232782887276015</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6414805011562839</v>
+        <v>0.5937133358400259</v>
       </c>
       <c r="P12" t="n">
-        <v>59.94266918224523</v>
+        <v>60.25219792069439</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.29006810342304</v>
+        <v>95.59959684187221</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9425530330084333</v>
+        <v>0.9508152582231731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.795585472265651</v>
+        <v>0.8375943992607309</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8626943650188651</v>
+        <v>0.9063514398867181</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8894646717426995</v>
+        <v>0.9857501471898498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9213972113099625</v>
+        <v>0.9727330726050273</v>
       </c>
       <c r="G13" t="n">
-        <v>0.384148132791567</v>
+        <v>0.3288985947365526</v>
       </c>
       <c r="H13" t="n">
-        <v>1.366920888201945</v>
+        <v>1.086006999952523</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1975581238880298</v>
+        <v>0.441993775717851</v>
       </c>
       <c r="J13" t="n">
-        <v>0.108462940416169</v>
+        <v>0.334912487943439</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1530105321520994</v>
+        <v>0.388453131830645</v>
       </c>
       <c r="L13" t="n">
-        <v>2.052440847978851</v>
+        <v>1.25693170494635</v>
       </c>
       <c r="M13" t="n">
-        <v>0.619796848000671</v>
+        <v>0.5734968131877914</v>
       </c>
       <c r="N13" t="n">
-        <v>1.27574544155952</v>
+        <v>1.236086760528769</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6461828829764088</v>
+        <v>0.59791175982726</v>
       </c>
       <c r="P13" t="n">
-        <v>59.91345407660717</v>
+        <v>60.22401159682478</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.26085299778498</v>
+        <v>95.57141051800259</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.941693045725571</v>
+        <v>0.9500833198019611</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7953693964555107</v>
+        <v>0.8369782534788361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8654234430984471</v>
+        <v>0.9071529959373847</v>
       </c>
       <c r="E14" t="n">
-        <v>0.892172676188126</v>
+        <v>0.9853981104866207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9230883098668721</v>
+        <v>0.9725754611273344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3898988717119442</v>
+        <v>0.3337930703294636</v>
       </c>
       <c r="H14" t="n">
-        <v>1.36836578813929</v>
+        <v>1.090127169633144</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1936314711660184</v>
+        <v>0.4382106659203797</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1058057073899341</v>
+        <v>0.3431863620456228</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1497185892779762</v>
+        <v>0.3906985139830011</v>
       </c>
       <c r="L14" t="n">
-        <v>2.065744398774011</v>
+        <v>1.267388057925578</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6244188271600595</v>
+        <v>0.5777482759208059</v>
       </c>
       <c r="N14" t="n">
-        <v>1.279873380517259</v>
+        <v>1.239600064950586</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6510016293574281</v>
+        <v>0.60234421613056</v>
       </c>
       <c r="P14" t="n">
-        <v>59.88373575357213</v>
+        <v>60.19446805583515</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.23113467474995</v>
+        <v>95.54186697701296</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9408054472321362</v>
+        <v>0.949304720454247</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7951293862869329</v>
+        <v>0.8363395265764868</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8679785840567538</v>
+        <v>0.9078235944996039</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8948430881851016</v>
+        <v>0.9850111701065812</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9247056522618583</v>
+        <v>0.9723673657848847</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3958342469245582</v>
+        <v>0.3389995677527486</v>
       </c>
       <c r="H15" t="n">
-        <v>1.369970737241715</v>
+        <v>1.09439833937022</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1899550826910525</v>
+        <v>0.4350456371132344</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1031853620046073</v>
+        <v>0.3522805728484524</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1465702223478299</v>
+        <v>0.3936631049808434</v>
       </c>
       <c r="L15" t="n">
-        <v>2.079066511260458</v>
+        <v>1.278100409073075</v>
       </c>
       <c r="M15" t="n">
-        <v>0.62915359565416</v>
+        <v>0.5822366939250296</v>
       </c>
       <c r="N15" t="n">
-        <v>1.284133853285746</v>
+        <v>1.243337341819615</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6559379667486446</v>
+        <v>0.6070237153815297</v>
       </c>
       <c r="P15" t="n">
-        <v>59.85351944744836</v>
+        <v>60.16351289333628</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.20091836862616</v>
+        <v>95.51091181451409</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9398894348630433</v>
+        <v>0.9484763001599517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7948644970948172</v>
+        <v>0.8356769154285499</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8703495969280748</v>
+        <v>0.9083492877179487</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8974733036837665</v>
+        <v>0.9845869633625381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9262448159296185</v>
+        <v>0.9721045272389115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4019596258545317</v>
+        <v>0.3445392180752267</v>
       </c>
       <c r="H16" t="n">
-        <v>1.371742052489095</v>
+        <v>1.098829223167518</v>
       </c>
       <c r="I16" t="n">
-        <v>0.186543621430654</v>
+        <v>0.4325645190889488</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1006044594876374</v>
+        <v>0.36225065029014</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1435740404591457</v>
+        <v>0.3974075846895444</v>
       </c>
       <c r="L16" t="n">
-        <v>2.092400022924325</v>
+        <v>1.28907448512522</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6340028595002799</v>
+        <v>0.5869746315431585</v>
       </c>
       <c r="N16" t="n">
-        <v>1.288530712657392</v>
+        <v>1.247313759232232</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6609936737960538</v>
+        <v>0.6119633568129453</v>
       </c>
       <c r="P16" t="n">
-        <v>59.8228072572091</v>
+        <v>60.13109470888215</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.17020617838691</v>
+        <v>95.47849363005996</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9389441366630396</v>
+        <v>0.9475950257322444</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7945737021998436</v>
+        <v>0.8349889848348829</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8725238129202573</v>
+        <v>0.9087170143638668</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9000620462896098</v>
+        <v>0.98412305453325</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9277007972022799</v>
+        <v>0.9717827727733936</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4082808392706546</v>
+        <v>0.3504323042312004</v>
       </c>
       <c r="H17" t="n">
-        <v>1.373686599290771</v>
+        <v>1.103429418214998</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1834153154991318</v>
+        <v>0.4308289570208853</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09806425230286485</v>
+        <v>0.3731538408188979</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1407397839009983</v>
+        <v>0.4019913989198916</v>
       </c>
       <c r="L17" t="n">
-        <v>2.105747241214587</v>
+        <v>1.300321093588223</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6389685745564132</v>
+        <v>0.5919732293197053</v>
       </c>
       <c r="N17" t="n">
-        <v>1.29306814401741</v>
+        <v>1.251543876485227</v>
       </c>
       <c r="O17" t="n">
-        <v>0.666170789622574</v>
+        <v>0.6171747552453635</v>
       </c>
       <c r="P17" t="n">
-        <v>59.79160001964751</v>
+        <v>60.09717546345745</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.13899894082533</v>
+        <v>95.44457438463526</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9379684552847714</v>
+        <v>0.9466578044195654</v>
       </c>
       <c r="C18" t="n">
-        <v>0.794255896885437</v>
+        <v>0.8342741261554049</v>
       </c>
       <c r="D18" t="n">
-        <v>0.874489330543366</v>
+        <v>0.9089143582004995</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9026048602549802</v>
+        <v>0.9836168874022213</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9290680746621109</v>
+        <v>0.9713979371194017</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4148052251397335</v>
+        <v>0.3566995074645927</v>
       </c>
       <c r="H18" t="n">
-        <v>1.375811764891567</v>
+        <v>1.10820968149629</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1805872890008488</v>
+        <v>0.4298975519105192</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09556911265870181</v>
+        <v>0.3850502228676485</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1380782008297753</v>
+        <v>0.4074738873890839</v>
       </c>
       <c r="L18" t="n">
-        <v>2.119112606456747</v>
+        <v>1.311832424181229</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6440537439839423</v>
+        <v>0.5972432565250049</v>
       </c>
       <c r="N18" t="n">
-        <v>1.297751414633098</v>
+        <v>1.256042538786086</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6714724452403849</v>
+        <v>0.6226691384192529</v>
       </c>
       <c r="P18" t="n">
-        <v>59.75989241187444</v>
+        <v>60.06172313485918</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.10729133305225</v>
+        <v>95.40912205603699</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9369613995733863</v>
+        <v>0.9456617422348297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7939099690451468</v>
+        <v>0.8335307042173932</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8762315750770332</v>
+        <v>0.9089297088879381</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9050973214643288</v>
+        <v>0.9830658938419179</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9303401469261804</v>
+        <v>0.9709459786770005</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4215394113188304</v>
+        <v>0.3633601798803649</v>
       </c>
       <c r="H19" t="n">
-        <v>1.378124985952439</v>
+        <v>1.113180947418917</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1780805123381665</v>
+        <v>0.4298251011617552</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0931233817245167</v>
+        <v>0.398000154812952</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1356019470313416</v>
+        <v>0.4139126279873536</v>
       </c>
       <c r="L19" t="n">
-        <v>2.132497236333472</v>
+        <v>1.323610903125699</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6492606651560145</v>
+        <v>0.6027936461844674</v>
       </c>
       <c r="N19" t="n">
-        <v>1.302585282047746</v>
+        <v>1.260823637272817</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6769010358265649</v>
+        <v>0.6284558196574094</v>
       </c>
       <c r="P19" t="n">
-        <v>59.72768400675108</v>
+        <v>60.02472141115555</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.07508292792889</v>
+        <v>95.37212033233335</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9359220238017083</v>
+        <v>0.9446037812221969</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7935346992955838</v>
+        <v>0.8327569396657003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8777361056795561</v>
+        <v>0.9087523120475803</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9075345881217184</v>
+        <v>0.9824673609396516</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9315104568171488</v>
+        <v>0.9704228782036037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4284897218899267</v>
+        <v>0.3704347700433026</v>
       </c>
       <c r="H20" t="n">
-        <v>1.380634416495725</v>
+        <v>1.118355114538946</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1759157632861165</v>
+        <v>0.4306623622918279</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09073181051912418</v>
+        <v>0.4120673978985264</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1333237869026204</v>
+        <v>0.4213648800951771</v>
       </c>
       <c r="L20" t="n">
-        <v>2.145899822943982</v>
+        <v>1.335660246605574</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6545912632245612</v>
+        <v>0.6086335268807517</v>
       </c>
       <c r="N20" t="n">
-        <v>1.3075742857518</v>
+        <v>1.265901850133455</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6824585684907488</v>
+        <v>0.6345443161651539</v>
       </c>
       <c r="P20" t="n">
-        <v>59.69497705497305</v>
+        <v>59.98615581801717</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.04237597615086</v>
+        <v>95.33355473919499</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9348490460648542</v>
+        <v>0.9434811204371869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.793128844934364</v>
+        <v>0.8319509432408597</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8789869529833454</v>
+        <v>0.9083729974699264</v>
       </c>
       <c r="E21" t="n">
-        <v>0.909911295547251</v>
+        <v>0.9818185609547803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9325717504780818</v>
+        <v>0.9698248666376931</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4356647289568785</v>
+        <v>0.3779420078820421</v>
       </c>
       <c r="H21" t="n">
-        <v>1.38334836647799</v>
+        <v>1.123744816343127</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1741160188936816</v>
+        <v>0.4324526160037835</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08839966314193312</v>
+        <v>0.427316061867612</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1312578410178074</v>
+        <v>0.4298843389356978</v>
       </c>
       <c r="L21" t="n">
-        <v>2.159324757624916</v>
+        <v>1.347975693355704</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6600490352669857</v>
+        <v>0.6147698820551004</v>
       </c>
       <c r="N21" t="n">
-        <v>1.3127245788887</v>
+        <v>1.271290621901503</v>
       </c>
       <c r="O21" t="n">
-        <v>0.688148689188165</v>
+        <v>0.6409419086832812</v>
       </c>
       <c r="P21" t="n">
-        <v>59.66176460344959</v>
+        <v>59.94602902686763</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.0091635246274</v>
+        <v>95.29342794804545</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9337413377251382</v>
+        <v>0.942291002324578</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7926912023119042</v>
+        <v>0.831110821933523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.879969261127882</v>
+        <v>0.9077832401470231</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9122205611223954</v>
+        <v>0.9811167284475829</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9335168029885043</v>
+        <v>0.9691482506961612</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4430719797250869</v>
+        <v>0.3859003331810481</v>
       </c>
       <c r="H22" t="n">
-        <v>1.386274884709538</v>
+        <v>1.129362711393691</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1727026540733575</v>
+        <v>0.4352360978383359</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08613369317169023</v>
+        <v>0.443811142500137</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1294181736225239</v>
+        <v>0.4395236201692365</v>
       </c>
       <c r="L22" t="n">
-        <v>2.172775276694665</v>
+        <v>1.3605540815261</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6656365222289766</v>
+        <v>0.6212087677915116</v>
       </c>
       <c r="N22" t="n">
-        <v>1.318041578919336</v>
+        <v>1.277003188842026</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6939740470378204</v>
+        <v>0.6476549111158222</v>
       </c>
       <c r="P22" t="n">
-        <v>59.62804607937288</v>
+        <v>59.90435229410385</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.97544500055069</v>
+        <v>95.25175121528166</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9325976622778986</v>
+        <v>0.9410308624444363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7922204570819232</v>
+        <v>0.8302346414940736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8806654971054356</v>
+        <v>0.9069773503277376</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9144555489774014</v>
+        <v>0.9803591210712501</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9343374118252145</v>
+        <v>0.9683898257954462</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4507197427069198</v>
+        <v>0.3943268943619656</v>
       </c>
       <c r="H23" t="n">
-        <v>1.389422760230002</v>
+        <v>1.135221734026729</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1717008956711787</v>
+        <v>0.4390396617544031</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08394060831483696</v>
+        <v>0.4616170928262484</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1278207519930078</v>
+        <v>0.4503283772903257</v>
       </c>
       <c r="L23" t="n">
-        <v>2.187972266832694</v>
+        <v>1.373394551658088</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6713566434518391</v>
+        <v>0.627954532081715</v>
       </c>
       <c r="N23" t="n">
-        <v>1.323531221066087</v>
+        <v>1.283051860266706</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6999376856634234</v>
+        <v>0.6546878565575167</v>
       </c>
       <c r="P23" t="n">
-        <v>59.59381909140656</v>
+        <v>59.86115006511518</v>
       </c>
       <c r="Q23" t="n">
-        <v>94.94121801258437</v>
+        <v>95.20854898629298</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9314168422665586</v>
+        <v>0.9396983064041357</v>
       </c>
       <c r="C24" t="n">
-        <v>0.791715259332872</v>
+        <v>0.8293204520002788</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8810572336745538</v>
+        <v>0.9059499288397795</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9166089993417582</v>
+        <v>0.9795428584388788</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9350249371464354</v>
+        <v>0.9675463216194681</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4586158915599266</v>
+        <v>0.403237702739313</v>
       </c>
       <c r="H24" t="n">
-        <v>1.39280101990413</v>
+        <v>1.141334923381189</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1711372571747402</v>
+        <v>0.4438887902638743</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08182753223101052</v>
+        <v>0.4808016102149468</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1264823947028753</v>
+        <v>0.4623452002394105</v>
       </c>
       <c r="L24" t="n">
-        <v>2.2032407071139</v>
+        <v>1.386489799810598</v>
       </c>
       <c r="M24" t="n">
-        <v>0.677211851313846</v>
+        <v>0.6350100020781665</v>
       </c>
       <c r="N24" t="n">
-        <v>1.329199157120519</v>
+        <v>1.289448129260149</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7060421618460672</v>
+        <v>0.6620436925185536</v>
       </c>
       <c r="P24" t="n">
-        <v>59.55908451365136</v>
+        <v>59.81645811563719</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.90648343482918</v>
+        <v>95.163857036815</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9301974139767036</v>
+        <v>0.9382910009006771</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7911743019201876</v>
+        <v>0.8283662507654612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8811273867879096</v>
+        <v>0.904697642595743</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9186723288324213</v>
+        <v>0.9786651619106554</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9355709019092623</v>
+        <v>0.9666148940208709</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4667702141491379</v>
+        <v>0.412648361120986</v>
       </c>
       <c r="H25" t="n">
-        <v>1.396418404613631</v>
+        <v>1.147715671432107</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1710363194567698</v>
+        <v>0.4497992145631018</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0798028873764372</v>
+        <v>0.5014300006862663</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1254196034166035</v>
+        <v>0.4756146076246841</v>
       </c>
       <c r="L25" t="n">
-        <v>2.218554455334352</v>
+        <v>1.399836149284737</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6832058358570555</v>
+        <v>0.6423771175259795</v>
       </c>
       <c r="N25" t="n">
-        <v>1.335052412911823</v>
+        <v>1.29620319567675</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7122913227205396</v>
+        <v>0.6697244413230112</v>
       </c>
       <c r="P25" t="n">
-        <v>59.52383637839568</v>
+        <v>59.7703189490943</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.8712352995735</v>
+        <v>95.1177178702721</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9289380841768164</v>
+        <v>0.9368069405202863</v>
       </c>
       <c r="C26" t="n">
-        <v>0.790596364980896</v>
+        <v>0.8273702096768975</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8808555512245732</v>
+        <v>0.9032188915668863</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9206365830388601</v>
+        <v>0.9777232870139028</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9359655081614652</v>
+        <v>0.9655930141112843</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4751913583196641</v>
+        <v>0.4225722797181286</v>
       </c>
       <c r="H26" t="n">
-        <v>1.400283071587827</v>
+        <v>1.154376202777681</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1714274419617286</v>
+        <v>0.4567784863191271</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07787546027856633</v>
+        <v>0.523566767234354</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1246514511201475</v>
+        <v>0.4901726267767406</v>
       </c>
       <c r="L26" t="n">
-        <v>2.233925247572809</v>
+        <v>1.413425021573315</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6893412495416651</v>
+        <v>0.6500555974054285</v>
       </c>
       <c r="N26" t="n">
-        <v>1.341097195951281</v>
+        <v>1.303326685502626</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7186879336677602</v>
+        <v>0.677729809987573</v>
       </c>
       <c r="P26" t="n">
-        <v>59.4880753929066</v>
+        <v>59.72278954112171</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.83547431408441</v>
+        <v>95.07018846229953</v>
       </c>
     </row>
   </sheetData>
